--- a/audio/ja/方案二/飯店QA/飯店QA.xlsx
+++ b/audio/ja/方案二/飯店QA/飯店QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\ja\方案二\飯店QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B86EE94-150A-4657-B45F-B4BB3F1D4578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0495F4-9434-4FF3-9CDD-63BA689C929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16275" yWindow="-75" windowWidth="16410" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="394">
   <si>
     <t>問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,13 +741,583 @@
   </si>
   <si>
     <t>こちらで自転車のレンタルサービスはありますか？</t>
+  </si>
+  <si>
+    <t>ホテルで利用できる施設はどのようなものがありますか?</t>
+  </si>
+  <si>
+    <t>台湾老人旅の施設は,軽体操室,自助洗濯室,甘情ブランドデザインショップ,ガンジー料理レストラン,21バー,ガンディーコーヒー,120トンもの展示スペースなど,ゲストに無料で提供されています.詳細については,カウンタースタッフに相談してください.</t>
+  </si>
+  <si>
+    <t>こちらにはサウナ・プール・キスルーム・ジムはありますか?</t>
+  </si>
+  <si>
+    <t>メディアは,この3つの温室,プールなどの施設を直接言及していない.緑地が挙げられるのは,主に国内および外部のサービスを提供する場所であり,上記の施設を含まない場所です.休憩施設の提供者として,お問い合わせの時間帯は,お問い合わせの時間帯が 過ぎないので,お問い合わせの時間帯は,お問い詳細はこちらから距離から見ると,一番近い店は39.5km離れた天香園のメイチキンレストランですが,主に中国料理を提供しており,温室やプールなど3台も提供されていません.健身房などの特定のニーズがあれば,直接カウンターに相談したり,近隣の施設を選択したりしてください.#商品の販売は,販売対象の店舗に最も近い店を特定できませんでした.緑の空間は,温室やプールなど3つの施設が存在しないが,休憩場として利用できる場所として考えられる.詳細については,カウンターに問い合わせるようお勧めします.</t>
+  </si>
+  <si>
+    <t>すみません ここに電気自動車の充填スタートはありますか?</t>
+  </si>
+  <si>
+    <t>台南の老人旅行の近くで電動車の充電設備が開始される時間や場所については確認できないので,ホテルカウンターや電話番号+886-06-2366168で直接駐車場管理局から連絡を頂くことをお勧めします.</t>
+  </si>
+  <si>
+    <t>こちらにKTVや麻雀ができる場所はありますか?</t>
+  </si>
+  <si>
+    <t>軽量健身房が設置されているが,KTVや麻酔設備は存在しない.ニュース記事一覧: ニュース記事一覧オンライン接続の部屋や設備を利用して楽しむこともできます.ニュースリリース"KTV"や"MANAGER"の利用については,カウンターに連絡して,代替案の確認をしてください.</t>
+  </si>
+  <si>
+    <t>すみません ここにATMはありますか?</t>
+  </si>
+  <si>
+    <t>旅館にはATMはありませんが,近くの南ショッピングセンターで複数の引き出し機を見つけることができます.</t>
+  </si>
+  <si>
+    <t>こちらに洗濯設備はありますか? 例えば洗濯機や乾燥機などはありますか?</t>
+  </si>
+  <si>
+    <t>洗濯機や洗濯機が用意されているので,ご利用の場合は,カウンターにご相談ください.</t>
+  </si>
+  <si>
+    <t>こちらで衣類のクリーニングサービスはありますか?</t>
+  </si>
+  <si>
+    <t>洗濯機や洗濯機が自助洗濯機に設置されているので,ご相談ください.</t>
+  </si>
+  <si>
+    <t>すみません こちらにビジネスセンターはありますか? ビデオ会議を行うための小さなスペースが必要です</t>
+  </si>
+  <si>
+    <t>台湾のオールド・バングラデーの商用センターは存在しないが,会議室のレンタルサービス,投影装置,Appleコンピュータを含む様々な接続手段をサポートしている.ビデオ会議の場は小さなスペースで,会議室を借りるのが考えられます.酒屋は,外で吸う場所やチェックリストのウェブサイトや現場を用意しています.シェイクスピア: シェイクスピア:</t>
+  </si>
+  <si>
+    <t>すみません ロービンにお手洗いはありますか?</t>
+  </si>
+  <si>
+    <t>台湾の老人旅行は自助洗濯機や洗濯機を用意し,洗濯機を簡単に洗うことができます.</t>
+  </si>
+  <si>
+    <t>すみません チームと選択肢はどこにありますか? 使い方を教えていただけますか? あとウォーターサーバーの場所も教えてください ありがとうございます</t>
+  </si>
+  <si>
+    <t>オンラインで,詳細については,カウンタースタッフの指示をご覧ください.シャワーバーは,水道で水道を飲めるための水器を設置しています.ゲストのご参加の詳細については,最新情報を得るため,お問い合わせください.</t>
+  </si>
+  <si>
+    <t>TSモール内の高営業店舗・海岸コーヒー・レストラン・バーを深むの営業時間は何ですか?</t>
+  </si>
+  <si>
+    <t>台湾の旅のレストランは朝食6:30~10:00 昼食11:30~14:00 夕食18:00~21:00です.海外のコーヒー店は10時から18時まで営業しています.酒屋21は18:00~24:00営業しています.山市ショッピングセンターは11時から22時まで営業しています.店舗の営業時間については,実際の需要に応じてチェックしてください.</t>
+  </si>
+  <si>
+    <t>すみません 南日本の連絡通路はどこにありますか? 開放時間はいつですか? また暗証番号を教えていただけますか? それなら、かしらに</t>
+  </si>
+  <si>
+    <t>韓国では,通門通線が通通門通線で,南京の営業時間と同期しています.メールの送信先は,メールの送信先です.ワイファイ密碼は,カウンターに請求されます.詳細については,直接カウンタースタッフに相談してください.</t>
+  </si>
+  <si>
+    <t>すみません カップ麺の自動販売機はどうやって使うんですか? それと 加湿の商品はどうやって交流すればいいですか?</t>
+  </si>
+  <si>
+    <t>商品の販売は,自販機で購入できる,または,化学製品や他の客室サービスと交流したい場合は,専門家のカウンターで相談してください.</t>
+  </si>
+  <si>
+    <t>お部屋に浴槽はありますか?</t>
+  </si>
+  <si>
+    <t>部屋には風味の部屋やおじいちゃんの部屋など,浴室があり,一般の部屋には,各階に飲水器があり,旅客用ボトル水があり,各階に自助洗濯機や洗濯機がある.浴室の場合は,一般の客室では,独立式浴室が特に強調されないが,各室には基本的なトイレ設備があることは確かです.詳細情報や特定の部屋の仕様が必要な場合は,相談室スタッフがより明確な答えを提供することをお勧めします.メールの返信は,メールの返信が,メールの返信が,部屋のいくつかは,お風呂やおじいちゃんの部屋などで浴室があります.</t>
+  </si>
+  <si>
+    <t>すみません 部屋のベッドの上にあるあの黒い木質の土棚は何ですか?</t>
+  </si>
+  <si>
+    <t>部屋の床の上にある黒い木製の棚は,主に収納スペースのデザインに使われています.</t>
+  </si>
+  <si>
+    <t>すみませんが、枕が硬すぎたり柔らかすぎたりしたら交換していただけますか?</t>
+  </si>
+  <si>
+    <t>台所で相談してください. 台所では,おすすめの枕を用意しています.</t>
+  </si>
+  <si>
+    <t>こちらに温水洗浄便座はありますか?</t>
+  </si>
+  <si>
+    <t>部屋には温水洗浄機があります.</t>
+  </si>
+  <si>
+    <t>こちらの場所は外に面白した的がありますか?</t>
+  </si>
+  <si>
+    <t>台湾の旅の周りに,多くの興味深い景色や小食があり,訪問に値する.</t>
+  </si>
+  <si>
+    <t>下室のテレビでネットフリックス・ディスニープラス・アイキゲなど ストーリーウィンクサービスは視聴できますか?</t>
+  </si>
+  <si>
+    <t>部屋の部分には,NETFLIX,Disney+などのプラットフォームがサポートされていますが,具体的には入宅前に相談してください.部屋の下室テレビは上記のサービスを直接視聴できないので,上記のサービスを利用する場合,入場後の相談台に追加支援を依頼することが推奨されています.台所から無料のWiFiパスワードが提供されています.の"アイギグ"は"アイ奇アート"の翻訳なので,混乱を避けるために,直接カウンターに問い合わせ,関連サービスや設備のサポート状況を確認することがお勧めです.</t>
+  </si>
+  <si>
+    <t>すみません 私のルームキーがエレベーターで使えず 部屋にも入れません どういうことでしょうか</t>
+  </si>
+  <si>
+    <t>部屋のカードやエレベーターの対応を助けるために,すぐにカウンターに連絡してください.</t>
+  </si>
+  <si>
+    <t>ファミリールームにエキストランペットを追加できますか?</t>
+  </si>
+  <si>
+    <t>寝床は,予約先で追加可能で,数量も限られています.</t>
+  </si>
+  <si>
+    <t>朝食は通常どこでお召し上がりになりますか?</t>
+  </si>
+  <si>
+    <t>普段は6時30分から10時00分までの間,本館の5階にある"ガンジストレストラン"で朝食を食べます.</t>
+  </si>
+  <si>
+    <t>朝食は何回で抵抗されていますか? 時間は何時から何時までですか? 食事エリアはどのように入ればよいですか?</t>
+  </si>
+  <si>
+    <t>山市にある"億円牛肉湯の店"に入ると,通道道から直接入ることができます.しかし,これまでのデータによると,近距離で営業時間が定かでない"南牛肉スープの後"を唯一の推奨店として選ぶことが推奨されています.台湾市東区 裕農路574号線で,南と南の距離207メートル程度です.店内での営業時間は特定の時間なので,訪問する前に確認してください.</t>
+  </si>
+  <si>
+    <t>すみません そちらで使える部隊はありますか</t>
+  </si>
+  <si>
+    <t>送料台や電機櫃で相談したり,ホテルのサービススタッフに相談したりできます.</t>
+  </si>
+  <si>
+    <t>会長の番組で音響機材を用意していただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>音響設備のレンタリングは,十分な設備を確保するために事前に予約する.</t>
+  </si>
+  <si>
+    <t>レストランでイベントを開催する際に参考になるガイド欄や歓迎用のポスターはありますか?</t>
+  </si>
+  <si>
+    <t>ゲストは,レストランの内側でガイドやポスターを制作することができます.店長や店長に相談して,もっと情報や支援を頂ければ,イベントの開催を計画している場合は,店内では,近隣の店は,料理の牛肉湯です. 約3.9km. 営業時間は日曜日11:00~14:00~16:00~21:00と,月曜から土曜の11:00~14:00~16:00~21:00です.国内および海外のサービスが提供されている4.4点です.ランコ植物園から約18.5km離れた場所なので,ここから出発すると,お菓子牛肉湯は最も近い選択肢であり,営業時間も長くなります.</t>
+  </si>
+  <si>
+    <t>会議室には最大で何台のテーブルを置けますか?</t>
+  </si>
+  <si>
+    <t>ガンジーの会議室は最大120人収容可能で,テーブル型は円形,教室型,U型,分組型などに柔軟性があるが,特定のテーブル数は需要に応じて異なります.</t>
+  </si>
+  <si>
+    <t>会議室ではどのような種類の会議用テーブルが用意されていますか?</t>
+  </si>
+  <si>
+    <t>ガンザーの会議室は,円形テーブル,教室型,U型,劇場型など,最大120人の収容所を含む,需要に応じて変更可能な会議テーブルを提供しています.会議のテーブルは,どのように使用するか尋ねましたが,その質問は特定の種類や詳細を明確に示していないため,会議のテーブルの種類と調整を直接説明します.</t>
+  </si>
+  <si>
+    <t>会議室にプロジェクトはありますか? 私はマックを使っているようですが、ゲット送ってきますか?</t>
+  </si>
+  <si>
+    <t>メールの送料無料は,本件で送料無料の送料無料です.</t>
+  </si>
+  <si>
+    <t>会議室は最大で何宅置けますか?</t>
+  </si>
+  <si>
+    <t>ガンジ会議室は,需要に応じてテーブル型を変更し,最大120人収容できる.</t>
+  </si>
+  <si>
+    <t>こちらのホテルに定型の住者帳はありますか?住者のホテルに定型の住者帳はありますか?</t>
+  </si>
+  <si>
+    <t>すみません 助社長の入り口はどうやって行けばいいですか?</t>
+  </si>
+  <si>
+    <t>副大統領などの個人空間や事務所を提供したり指引したりできないので,他のホテル施設やサービスに関する問題があれば,相談台でご相談ください.</t>
+  </si>
+  <si>
+    <t>ジュッシャのレッツはできている場合はどうすればよいですか?</t>
+  </si>
+  <si>
+    <t>台湾の旅館のドックに直接問い合わせてください 必要な情報や質問があれば,ご支援を専門家に提供します.</t>
+  </si>
+  <si>
+    <t>すみません 著者庁の計算機はずっと また支払いが必要です と表示されるのですが これはどういうことでしょうか</t>
+  </si>
+  <si>
+    <t>駐車場の料金表で料金表が表示される問題について,駐車場チケットカードをキャッシュボードに持っていても,磁気消消耗や質問を行うことができます.投稿者: 投稿者</t>
+  </si>
+  <si>
+    <t>ホテルは高速鉄道や再来線の駅までの送影を言っていますか? 利用できるはどうすればよいのですか?</t>
+  </si>
+  <si>
+    <t>すみません ホテルの近くに ユーバイクを借りられるところはありますか? また 原付を借りられる場所はありますか?</t>
+  </si>
+  <si>
+    <t>旅館の近くにあるYouBike駅で自転車レンタルできますが,飛行機レンタルについては,隣の飛行機で相談してください.空港は,ホテルに近い空港で運航しています.</t>
+  </si>
+  <si>
+    <t>レストランに食事に行くとき車はどこに止めればよいんでしょうか?自宅に提携している助社長はありますか?</t>
+  </si>
+  <si>
+    <t>ショッピングセンターの駐車場を駐車して,消費者は割引優待を享受できます.駐車場は,ホテルに宿泊している場合,地下駐車場が共有されている.</t>
+  </si>
+  <si>
+    <t>すみません 南ボーガラレストランへはどこ行けばいいですか?</t>
+  </si>
+  <si>
+    <t>台湾市東区574号裕農路にある南宝ゴルフ場から約200メートル離れた南の"億牛肉湯後甲店"へ.営業時間は特定の日から06:00~18:00ですが,実際の営業時間は日や季節によって調整される場合があります.近くにあるレストランも多くあるが,最近は"ココ牛肉スープ後A店" (南店) が紹介されている.</t>
+  </si>
+  <si>
+    <t>すみません ホテルから高層鉄道の駅まで どう行けばいいですか?</t>
+  </si>
+  <si>
+    <t>駅まで20分ほどかかる高速バスやタクシーで到着できます.</t>
+  </si>
+  <si>
+    <t>TSモールへはどうやって行けばいいですか?</t>
+  </si>
+  <si>
+    <t>台湾のオールド・旅ホテルから5~10分ほどタクシーで出発し,TSMOREまで15~20分ほど歩いて行くことができます.</t>
+  </si>
+  <si>
+    <t>すみません ここに喫煙症はありますか?</t>
+  </si>
+  <si>
+    <t>すみません 近くにコンビニはありますか?</t>
+  </si>
+  <si>
+    <t>南市内や周辺には便利店があり,ホテルの内側には露天吸い所があります.メールの送料無料は,メールの送料無料です.</t>
+  </si>
+  <si>
+    <t>すみません 一番近いヨイチはどこですか?</t>
+  </si>
+  <si>
+    <t>すみません ホテルの閉団行動はどこにありますか? 階段で5階のレストランにあがってもよろしいですか?</t>
+  </si>
+  <si>
+    <t>逃走の指示をホテル内の地図で確認し,グループへの移動の路線をご覧ください.基本的には5階のレストランへの階段を走るのは可能ですが,急避難計画と安全規定を確認することをお勧めします.セキュリティーに関する質問は,ホテルに相談してください. セキュリティーに関する質問は,ホテルに相談してください.(追加:各階のホテルには逃走指示図があり,各階と出口まで案内します.オンラインで[ユーザー] ゲストのご案内やポスターのご案内を頂けますか?旅館内イベントの開催時に案内やポスターの提供など,ご相談ください.活動がうまく進められるように必要な支援やリソースを用意します.(追加:各ホテルの作業プロセスと提供サービスは異なる場合があります.</t>
+  </si>
+  <si>
+    <t>すみません 部屋の清掃状態があまり良くないようです 対応していただけますか</t>
+  </si>
+  <si>
+    <t>部屋の掃除が悪かったら,カウンターに連絡してください.</t>
+  </si>
+  <si>
+    <t>家室に異臭がしたり清掃が行き届けていない場合 別の部屋に帰っていただけますか? また部屋が狭すぎる場合も別の部屋に帰っていただけますか?</t>
+  </si>
+  <si>
+    <t>部屋の汚れた匂いが覚えるか,掃除の問題があるか,お知らせをカウンターに届け,ホテルから助けを借りたり,部屋の交換をしたりできます.部屋の変更を依頼すると,その日の状況を見て,大きな部屋に交換できるかどうか判断します.</t>
+  </si>
+  <si>
+    <t>すみません 部屋でのインターネット下足はどうすればいいですか</t>
+  </si>
+  <si>
+    <t>ワイワイは無料です. 密码をチェックするには,カウンターからダウンロードしてください.</t>
+  </si>
+  <si>
+    <t>すみません 過失に少しイシュガーするの気づきました 体温していただけますでしょうか ありがとうございます</t>
+  </si>
+  <si>
+    <t>台湾の老人 AI旅です. 台湾の老人 AI旅は,台湾の老人です.砂糖の不適な状況にあるので,最近の店を推薦します.台南市東区林森路2号184号線で1000メートルほど離れた場所にあり,営業時間は10:00~20:30です.海外の送料無料は4.8点で,価格も中等です.距離は966メートルです.医療費の提供は,医療費の提供が目的で,医療費の提供が目的で,</t>
+  </si>
+  <si>
+    <t>そちらへではベイビー用品をご提供していますが 例えばベイビーペット・ベイビーバス・ベイビーカット・哺乳品用消毒品</t>
+  </si>
+  <si>
+    <t>赤ちゃん用品は,尿布,タオル,乳瓶,乳房,浴槽,床包,消毒器などで,予約が必要です.法律は,この問題について,赤ちゃん用品の詳細については他の場所では提供できません.台所スタッフの相談を勧めます.</t>
+  </si>
+  <si>
+    <t>備品は無料でいただけますか?</t>
+  </si>
+  <si>
+    <t>基本備品は無料ですが,特別な需要や一次性備品は,事前に予約するか,カウンターで確認する必要があります.</t>
+  </si>
+  <si>
+    <t>カシツの清掃が十分でない場合、どなたにご連絡すればよろしいでしょうか?</t>
+  </si>
+  <si>
+    <t>メールの送料無料は,</t>
+  </si>
+  <si>
+    <t>すみません 過失にミネラルウォーターが用意されていないのですか 飲み水はどうすればよいでしょうか</t>
+  </si>
+  <si>
+    <t>ウォーター・ウォーター・ポータルで,水道が水道に詰め込まれていると,</t>
+  </si>
+  <si>
+    <t>すみません ミネラルウォーターを6本 お部屋までお持ちいただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>電気代をチェックして,あなたの部屋に水を送る手助けをします.</t>
+  </si>
+  <si>
+    <t>館内にチームなどの施設はございますか?</t>
+  </si>
+  <si>
+    <t>お昼に早めにチェックインされていただけますか?</t>
+  </si>
+  <si>
+    <t>メールの送料無料は,本件で送料無料の送料無料です.荷物送料無料は限られているが,特定の制限や費用が設定される場合があることに注意してください.食事の早餐や他のニーズがあれば,最新情報を直接カウンターに問い合わせてください.</t>
+  </si>
+  <si>
+    <t>もし早めに到着する場合 こちらに荷物を預けてもよろしいでしょうか? また チェックアウトの際にも 荷物を預かれますか?</t>
+  </si>
+  <si>
+    <t>荷物を送って送ると,送料無料となります.家庭内での食事の機会は,ご家族からご飯を食べてご馳走ください.住宅の賃貸料は,住宅の賃貸料が遅れて,遅れて,早く入宅する費用が遅れて,住宅の状況に応じて調整されます.</t>
+  </si>
+  <si>
+    <t>チェックアウトを遅らせることはできますか?その場合、税価料金はどのくらいかかりますか?もしもう1泊したい</t>
+  </si>
+  <si>
+    <t>住宅の価格が上がる可能性が高いので,ご自宅の賃貸を遅らせて下さい.遅延の費用は,その日の賃料で計算され,また夜を過ごす場合は,その日の賃料で計算されます.</t>
+  </si>
+  <si>
+    <t>こんにちは。早めのチェックインや遅めのチェックアウトは可能でしょうか? また、チェックアウトの炎上はできますか? 料金の発生や支払い方法</t>
+  </si>
+  <si>
+    <t>予約は早めにや遅い時間でも可能ですが,退院を遅らせると,住宅の状況を確認し,価格も加算する必要があります.荷物を送る無料のサービスが帰宅時に限られている.旅行のルールに従ってタクシーを呼び出せる.相談室の職員に相談して,より明確な手続きを行うことをお勧めします.</t>
+  </si>
+  <si>
+    <t>こちらでは休憩サービスを抵抗していますか?</t>
+  </si>
+  <si>
+    <t>休憩期間が短くなかったので,ごめんなさい.</t>
+  </si>
+  <si>
+    <t>1階の連絡通路の暗証番号を教えていただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>メールの送迎番号は,電話番号をチェックする際に,電話番号を入力します.</t>
+  </si>
+  <si>
+    <t>チェックアウト後も 助車帳に車を止めておいてもよろしいでしょうか</t>
+  </si>
+  <si>
+    <t>駐車場での駐車場を継続してご利用ください.</t>
+  </si>
+  <si>
+    <t>すみません ホテルのチェックアウトは何時ですか?</t>
+  </si>
+  <si>
+    <t>駐車場での</t>
+  </si>
+  <si>
+    <t>チェックアウトの時間を少し遅らせてもよろしいでしょうか</t>
+  </si>
+  <si>
+    <t>退房の延期は,適当な処理が可能だが,追加料金が必要だが,専門家の支援を要請する相談台を提案する.</t>
+  </si>
+  <si>
+    <t>お子様を連れて宿泊する場合、追加料金はかかりますか?</t>
+  </si>
+  <si>
+    <t>5歳未満の子どもは無料のベッドを入れないし, 5歳以上の子どもや他にも必要とされる費用が追加される.</t>
+  </si>
+  <si>
+    <t>タンローヤ・ホテルの一番お得な予約方法は何でしょうか?宿泊料金は大体どのくらいになりますか?</t>
+  </si>
+  <si>
+    <t>台湾の旅の旅の旅の旅は,NT$3,000で2人居の賃貸を比較し,より安い選択肢です.</t>
+  </si>
+  <si>
+    <t>どの加湿タイプに浴槽がついていますか?</t>
+  </si>
+  <si>
+    <t>部屋の入住は"品味の部屋"や"おじいちゃんの部屋"です.飲水器は各階に設置され,毎日ボトル水が供給されています.メールの送料無料は,メールの送料無料です.</t>
+  </si>
+  <si>
+    <t>お世話になります。次の食博を予約したいのですが、食博の列車を台湾の統一変更、授業場番号で発送して…</t>
+  </si>
+  <si>
+    <t>実験キレイの食博券はまた使えますか?</t>
+  </si>
+  <si>
+    <t>チケットの規定によると,レストランは引き続き使用できるかどうか確認してください.</t>
+  </si>
+  <si>
+    <t>時間切れの食博券はどのようにして、食博料金に割引に使いますか?</t>
+  </si>
+  <si>
+    <t>チケットの規定に従って,レストランで確認してください.</t>
+  </si>
+  <si>
+    <t>部屋を予約する際に豪鉄・台湾高速鉄道のチケットを一緒に追加で予約するにはどうすればいいですか?</t>
+  </si>
+  <si>
+    <t>予約時に確認するため,一部のプラットフォームは鉄道と協力しています.</t>
+  </si>
+  <si>
+    <t>予約時に鋼鉄の割引を追加できる購入できますか?</t>
+  </si>
+  <si>
+    <t>予約時に鉄道の優惠額を追加するか確認し,ホテルの櫃台やウェブサイトに直接問い合わせることが推奨されている.</t>
+  </si>
+  <si>
+    <t>平日のランチ券は休日にも使えますか?</t>
+  </si>
+  <si>
+    <t>週末にランチ券が休日に使用されるかどうかは明らかではない.販売業者は,販売業者の情報やサービスに関する情報を得るために,販売業者に直接連絡したり,公式の通販サイトに直接連絡したり,コーヒールームは2.13kmほど離れた場所であり,営業時間も特定なので,質問があれば営業時間中に電話で問い合わせください.近くの"アポルク牛肉湯"は7.43kmほど離れたところにあり,営業時間は12:00~21:00です.ブログの内容を書き込み,書き込みなど,</t>
+  </si>
+  <si>
+    <t>すみません 私の食事券が事件切れになっていた場合 どうすれば使えますか?</t>
+  </si>
+  <si>
+    <t>食品券の規定に従って,レストランでご相談ください.</t>
+  </si>
+  <si>
+    <t>ご高齢の方への特別な割引はございますか? また、誕生日の際にはどのような割引や特典がございますか?</t>
+  </si>
+  <si>
+    <t>寿星と高齢者向けに特別優待が提供され,生日や高齢者割引も含まれています.</t>
+  </si>
+  <si>
+    <t>特別な週日の食事代はどのように計算されますか?</t>
+  </si>
+  <si>
+    <t>週末と祝日の食事料の基準は異なる可能性があるため,ホテルウェブサイトを参照してください.</t>
+  </si>
+  <si>
+    <t>ラウンジとディーナーの営業時間は何時ですか?</t>
+  </si>
+  <si>
+    <t>台南の老人旅のラウンジとディナレストランは10時から18:00まで営業し,ディナレストランは11時30分から14:00まで,18時00分から21:00まで営業しています.</t>
+  </si>
+  <si>
+    <t>現状での食事代はどのように計算されますか? 子供は注文したくてもよいですか?</t>
+  </si>
+  <si>
+    <t>児童は,自給食料の基準を特定している.店員の公式サイトや現場でのサービス担当者に直接ご相談ください.近くにある店は,あなたの場所から最近で推奨されている"二牛肉パンは"11.6km離れた場所です.位置や距離を提示していないので,マップやナビゲーションツールで直接参照してください.</t>
+  </si>
+  <si>
+    <t>食事券の割引はどのように使えばよいですか?</t>
+  </si>
+  <si>
+    <t>チケットの規定に従って,レストランでご利用の確認ください.</t>
+  </si>
+  <si>
+    <t>すみません 家族と一緒に小食を食べられない場合 小食をお持ち帰り用に包んでいただけますか ありがとうございます</t>
+  </si>
+  <si>
+    <t>メールの送迎は,店員にご用意した食器箱をご用意ください.</t>
+  </si>
+  <si>
+    <t>メニューの参考を見せていただけますか? ありがとうございます。</t>
+  </si>
+  <si>
+    <t>台湾の旅の旅のサイトや現場ではメニューの情報を確認できます.</t>
+  </si>
+  <si>
+    <t>誕生日向けの飲食割引や特典はありますか?</t>
+  </si>
+  <si>
+    <t>誕生日のお食事のご利用はこちらからお問い合わせください.固定反応は,未確認です.メールの送料無料は,本件で送料無料の送料無料です.</t>
+  </si>
+  <si>
+    <t>そちらの会員になるにはどうすればよいですか?</t>
+  </si>
+  <si>
+    <t>台湾の旅館の会員になるには,オンライン登録を申し込み,特惠,ポイント,誕生日祝い等の権利があります.施設は,体育館を含む無料の施設です.山市街の地下駐車場は,宿泊客が無料駐車できる場所です.相談室スタッフが対応することをお勧めします.</t>
+  </si>
+  <si>
+    <t>そちらのホテルの会員になるにはどうすればよいですか?会員はどのような特典を受けられますか?</t>
+  </si>
+  <si>
+    <t>台湾老人旅の会員には,公式サイトで登録し,特典やポイント,誕生日祝いなどでご参加ください.</t>
+  </si>
+  <si>
+    <t>誕生日の方を対象とした宿泊割引はございますか?</t>
+  </si>
+  <si>
+    <t>寿星,老人優待,レストラン,ウェブサイトなどがあります.予約の期限が切れた住宿券や誕生日宿泊券の利用に関する規則は,チェックアウトの台所でも確認できます.</t>
+  </si>
+  <si>
+    <t>誕生日の方の飲食割引はありますか?</t>
+  </si>
+  <si>
+    <t>寿司は,お店のウェブサイトや電話で相談をしたり,優惠を申し出ることができます.</t>
+  </si>
+  <si>
+    <t>すみません デリバリーを頼むのを手伝っていただけますか? 地元の料理を試してみたいです</t>
+  </si>
+  <si>
+    <t>メールの送料無料は,電話で直接連絡したり,送料無料のサービスを処理したりできないので,ご相談ください.</t>
+  </si>
+  <si>
+    <t>ホテルでデリバリーの食事を受け取ってもらえますか?</t>
+  </si>
+  <si>
+    <t>そちらへ荷物の発送や受け取りを手伝っていただけますか?</t>
+  </si>
+  <si>
+    <t>送料無料の予約は,ご予約の開始時に,ご予約の開始時にご予約ください.</t>
+  </si>
+  <si>
+    <t>駐車場で渋滞にあったり駐車スペースが見つからない場合はどうすればよいですか?</t>
+  </si>
+  <si>
+    <t>駐車場が塞いでいる場合や駐車場が見つからない場合,直接ホテルカウンターに相談してください (06-2361680),サービススタッフは利用可能な駐車場を案内したり,一時的な駐車場を助けるのを手伝います.休日や混雑の時期には,周辺の駐車場まで案内できます.山市街の地下駐車場と共有された駐車場では,宿泊客が無料駐車できる.駐車場が満席になったら,忍耐強く待ってください.酒屋の水道は,水道の水道として,水道の水道として,水道の水道として,水道の水道として,水道が水道として,(原題は日本語で説明されているので,直接中文で回答し,簡潔に文にします)駐車場が塞いでいる場合や駐車場が見つからない場合,直接ホテルカウンターに相談してください (06-2361680),サービススタッフは利用可能な駐車場を案内したり,一時的な駐車場を助けるのを手伝います.</t>
+  </si>
+  <si>
+    <t>ホテルでタクシーを呼んでいただけますか? クレジットカートでの支払いは可能ですか? 可能ですか?</t>
+  </si>
+  <si>
+    <t>カーに電話してもいいのですが自動車の運転規則に準拠して刷卡の部分が発行されます.</t>
+  </si>
+  <si>
+    <t>ホテルの駐車方法はどのようになっていますか? チェックアウトの際に駐車料金を割引してもらえる時間はありますか? 最終的に</t>
+  </si>
+  <si>
+    <t>山市ショッピングセンターの地下駐車場をシェアし,無料駐車券を利用できます.駐車場の延長や駐車場や折扣の規則について知りたかったら,最新情報をチェックするカウンタースタッフに相談してください.</t>
+  </si>
+  <si>
+    <t>高速鉄道の駅や最大線の駅では無料のシャトルバースはありますか?</t>
+  </si>
+  <si>
+    <t>駅や駅への送料無料はなく,高速バスやタクシーを利用することが推奨されています.</t>
+  </si>
+  <si>
+    <t>すみません ホテルの近くにコンビニはありますか? またおすすめのクルメや屋台・観光スポットがあれば教えてください ありがとうございます</t>
+  </si>
+  <si>
+    <t>店内には南ショッピングセンターがあり,また,台南市街には,たくさんの食材や観光スポット,YouBike駅があり,交通が便利です.ニュージャージーでは,夜市や地元の有名な料理を味わうことがお勧めです.部屋の設置や情報については,回答できないので,ごめんなさい.</t>
+  </si>
+  <si>
+    <t>すみません、ここは四海地に近いますか? 近くにおすすめの観光スポットやクルメはありますか?</t>
+  </si>
+  <si>
+    <t>台湾のオールド・旅の場所です. 地理的には約3.9km離れたところにある"クッキー・ビーフ・ソープ"は,近くの店です.近くにある観光地や食材を探している場合は,料理の牛肉湯を考慮してください.ウェブサイトのウェブサイトは,この記事の内容を掲載しています.牛肉の湯は,お茶の湯で作られていて,もっと良い選択肢を見つけられるようにしたいです.</t>
+  </si>
+  <si>
+    <t>牢屋の近くで親で食事ができるレストランや親で遊ぶのにおすすめのスポットはありますか?</t>
+  </si>
+  <si>
+    <t>牛肉のスープの店 (南) 近くには200メートルほど離れたレストランがあり,田市では,近隣の田市と新鮮食品店,東寧2店が,両親が親の食事に適した環境で,BFFのスープを考慮してください.山市内にはスーパーがあり,両親のレストランや観光地については,カウンターで相談して推薦を依頼できます.(注:質問の地点と店員が同じエリアにあるので,一番近い2店舗に直接回答します.オンラインで近くにある親のレストランには,10億人の親の牛肉スープの店がある.田市では,田市が207メートル離れたところにある田市も考慮に入れるが,営業時間には注意を払う必要があります.海外の観光地やレストランについて知りたかったらコチラで相談してください.</t>
+  </si>
+  <si>
+    <t>ペットの宿泊は可能ですか?</t>
+  </si>
+  <si>
+    <t>猫は,犬の飼育を許可せず,犬の飼育を許可しています.</t>
+  </si>
+  <si>
+    <t>こちらはペット連れても大丈夫でしょうか</t>
+  </si>
+  <si>
+    <t>この天皇会は一般に公開されていますか?</t>
+  </si>
+  <si>
+    <t>皇帝会の公開状況を確認できないので,ごめんなさい.</t>
+  </si>
+  <si>
+    <t>こちらで自転車のレンタルサービスはありますか?</t>
+  </si>
+  <si>
+    <t>台南の老人旅の近くで自転車レンタルサービスに関する情報があるかどうか確認できないのですが,YouBikeを利用することをお勧めします.バイクのレンタルサービスが必要な場合は,詳細な情報を得るため,カウンタースタッフに相談してください.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,13 +1332,25 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -783,9 +1365,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1068,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1681,12 @@
       <c r="A2" t="s">
         <v>104</v>
       </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1106,6 +1695,12 @@
       <c r="A3" t="s">
         <v>105</v>
       </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1114,6 +1709,12 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>209</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1122,6 +1723,12 @@
       <c r="A5" t="s">
         <v>107</v>
       </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1130,6 +1737,12 @@
       <c r="A6" t="s">
         <v>108</v>
       </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
+        <v>213</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,6 +1751,12 @@
       <c r="A7" t="s">
         <v>109</v>
       </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,6 +1765,12 @@
       <c r="A8" t="s">
         <v>110</v>
       </c>
+      <c r="B8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,6 +1779,12 @@
       <c r="A9" t="s">
         <v>111</v>
       </c>
+      <c r="B9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1162,6 +1793,12 @@
       <c r="A10" t="s">
         <v>112</v>
       </c>
+      <c r="B10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="s">
+        <v>221</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1170,6 +1807,12 @@
       <c r="A11" t="s">
         <v>113</v>
       </c>
+      <c r="B11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,6 +1821,12 @@
       <c r="A12" t="s">
         <v>114</v>
       </c>
+      <c r="B12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1186,6 +1835,12 @@
       <c r="A13" t="s">
         <v>115</v>
       </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1194,6 +1849,12 @@
       <c r="A14" t="s">
         <v>116</v>
       </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1202,6 +1863,12 @@
       <c r="A15" t="s">
         <v>117</v>
       </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" t="s">
+        <v>231</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,6 +1877,12 @@
       <c r="A16" t="s">
         <v>118</v>
       </c>
+      <c r="B16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>233</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1218,6 +1891,12 @@
       <c r="A17" t="s">
         <v>119</v>
       </c>
+      <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
+        <v>235</v>
+      </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1226,6 +1905,12 @@
       <c r="A18" t="s">
         <v>120</v>
       </c>
+      <c r="B18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" t="s">
+        <v>237</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,6 +1919,12 @@
       <c r="A19" t="s">
         <v>121</v>
       </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>239</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1242,6 +1933,12 @@
       <c r="A20" t="s">
         <v>122</v>
       </c>
+      <c r="B20" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" t="s">
+        <v>241</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1250,6 +1947,12 @@
       <c r="A21" t="s">
         <v>123</v>
       </c>
+      <c r="B21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1258,6 +1961,8 @@
       <c r="A22" t="s">
         <v>124</v>
       </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1266,6 +1971,12 @@
       <c r="A23" t="s">
         <v>125</v>
       </c>
+      <c r="B23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1274,6 +1985,12 @@
       <c r="A24" t="s">
         <v>126</v>
       </c>
+      <c r="B24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1282,6 +1999,12 @@
       <c r="A25" t="s">
         <v>127</v>
       </c>
+      <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>249</v>
+      </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1290,6 +2013,12 @@
       <c r="A26" t="s">
         <v>128</v>
       </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>251</v>
+      </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1298,6 +2027,12 @@
       <c r="A27" t="s">
         <v>129</v>
       </c>
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
       </c>
@@ -1306,6 +2041,12 @@
       <c r="A28" t="s">
         <v>130</v>
       </c>
+      <c r="B28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" t="s">
+        <v>255</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
       </c>
@@ -1314,6 +2055,12 @@
       <c r="A29" t="s">
         <v>131</v>
       </c>
+      <c r="B29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" t="s">
+        <v>257</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
       </c>
@@ -1322,6 +2069,12 @@
       <c r="A30" t="s">
         <v>132</v>
       </c>
+      <c r="B30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" t="s">
+        <v>259</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
       </c>
@@ -1330,6 +2083,12 @@
       <c r="A31" t="s">
         <v>133</v>
       </c>
+      <c r="B31" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" t="s">
+        <v>261</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
       </c>
@@ -1338,6 +2097,12 @@
       <c r="A32" t="s">
         <v>134</v>
       </c>
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
       </c>
@@ -1346,6 +2111,12 @@
       <c r="A33" t="s">
         <v>135</v>
       </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
       </c>
@@ -1354,6 +2125,12 @@
       <c r="A34" t="s">
         <v>136</v>
       </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
       </c>
@@ -1362,6 +2139,12 @@
       <c r="A35" t="s">
         <v>137</v>
       </c>
+      <c r="B35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C35" t="s">
+        <v>268</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
       </c>
@@ -1370,6 +2153,12 @@
       <c r="A36" t="s">
         <v>138</v>
       </c>
+      <c r="B36" t="s">
+        <v>269</v>
+      </c>
+      <c r="C36" t="s">
+        <v>270</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
       </c>
@@ -1378,6 +2167,12 @@
       <c r="A37" t="s">
         <v>139</v>
       </c>
+      <c r="B37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C37" t="s">
+        <v>261</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
       </c>
@@ -1386,6 +2181,12 @@
       <c r="A38" t="s">
         <v>140</v>
       </c>
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" t="s">
+        <v>273</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
       </c>
@@ -1394,6 +2195,12 @@
       <c r="A39" t="s">
         <v>141</v>
       </c>
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C39" t="s">
+        <v>275</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
       </c>
@@ -1402,6 +2209,12 @@
       <c r="A40" t="s">
         <v>142</v>
       </c>
+      <c r="B40" t="s">
+        <v>276</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
       </c>
@@ -1410,6 +2223,12 @@
       <c r="A41" t="s">
         <v>143</v>
       </c>
+      <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>279</v>
+      </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
       </c>
@@ -1418,6 +2237,12 @@
       <c r="A42" t="s">
         <v>144</v>
       </c>
+      <c r="B42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" t="s">
+        <v>281</v>
+      </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
       </c>
@@ -1426,6 +2251,12 @@
       <c r="A43" t="s">
         <v>145</v>
       </c>
+      <c r="B43" t="s">
+        <v>282</v>
+      </c>
+      <c r="C43" t="s">
+        <v>261</v>
+      </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
       </c>
@@ -1434,6 +2265,12 @@
       <c r="A44" t="s">
         <v>146</v>
       </c>
+      <c r="B44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C44" t="s">
+        <v>284</v>
+      </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1442,6 +2279,12 @@
       <c r="A45" t="s">
         <v>147</v>
       </c>
+      <c r="B45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" t="s">
+        <v>261</v>
+      </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
       </c>
@@ -1450,6 +2293,12 @@
       <c r="A46" t="s">
         <v>148</v>
       </c>
+      <c r="B46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" t="s">
+        <v>287</v>
+      </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
       </c>
@@ -1458,6 +2307,12 @@
       <c r="A47" t="s">
         <v>149</v>
       </c>
+      <c r="B47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" t="s">
+        <v>289</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
       </c>
@@ -1466,6 +2321,12 @@
       <c r="A48" t="s">
         <v>150</v>
       </c>
+      <c r="B48" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" t="s">
+        <v>291</v>
+      </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
       </c>
@@ -1474,6 +2335,12 @@
       <c r="A49" t="s">
         <v>151</v>
       </c>
+      <c r="B49" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" t="s">
+        <v>293</v>
+      </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
       </c>
@@ -1482,6 +2349,12 @@
       <c r="A50" t="s">
         <v>152</v>
       </c>
+      <c r="B50" t="s">
+        <v>294</v>
+      </c>
+      <c r="C50" t="s">
+        <v>295</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
       </c>
@@ -1490,6 +2363,12 @@
       <c r="A51" t="s">
         <v>153</v>
       </c>
+      <c r="B51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" t="s">
+        <v>297</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
       </c>
@@ -1498,6 +2377,12 @@
       <c r="A52" t="s">
         <v>154</v>
       </c>
+      <c r="B52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C52" t="s">
+        <v>299</v>
+      </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
@@ -1506,6 +2391,12 @@
       <c r="A53" t="s">
         <v>155</v>
       </c>
+      <c r="B53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" t="s">
+        <v>301</v>
+      </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
       </c>
@@ -1514,6 +2405,12 @@
       <c r="A54" t="s">
         <v>156</v>
       </c>
+      <c r="B54" t="s">
+        <v>302</v>
+      </c>
+      <c r="C54" t="s">
+        <v>303</v>
+      </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
       </c>
@@ -1522,6 +2419,12 @@
       <c r="A55" t="s">
         <v>157</v>
       </c>
+      <c r="B55" t="s">
+        <v>304</v>
+      </c>
+      <c r="C55" t="s">
+        <v>305</v>
+      </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
       </c>
@@ -1530,6 +2433,12 @@
       <c r="A56" t="s">
         <v>158</v>
       </c>
+      <c r="B56" t="s">
+        <v>306</v>
+      </c>
+      <c r="C56" t="s">
+        <v>261</v>
+      </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
       </c>
@@ -1538,6 +2447,12 @@
       <c r="A57" t="s">
         <v>159</v>
       </c>
+      <c r="B57" t="s">
+        <v>307</v>
+      </c>
+      <c r="C57" t="s">
+        <v>308</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
       </c>
@@ -1546,6 +2461,12 @@
       <c r="A58" t="s">
         <v>160</v>
       </c>
+      <c r="B58" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" t="s">
+        <v>310</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
       </c>
@@ -1554,6 +2475,12 @@
       <c r="A59" t="s">
         <v>161</v>
       </c>
+      <c r="B59" t="s">
+        <v>311</v>
+      </c>
+      <c r="C59" t="s">
+        <v>312</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
       </c>
@@ -1562,6 +2489,12 @@
       <c r="A60" t="s">
         <v>162</v>
       </c>
+      <c r="B60" t="s">
+        <v>313</v>
+      </c>
+      <c r="C60" t="s">
+        <v>314</v>
+      </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
       </c>
@@ -1570,6 +2503,12 @@
       <c r="A61" t="s">
         <v>163</v>
       </c>
+      <c r="B61" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" t="s">
+        <v>316</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
       </c>
@@ -1578,6 +2517,12 @@
       <c r="A62" t="s">
         <v>164</v>
       </c>
+      <c r="B62" t="s">
+        <v>317</v>
+      </c>
+      <c r="C62" t="s">
+        <v>318</v>
+      </c>
       <c r="D62" s="1" t="s">
         <v>68</v>
       </c>
@@ -1586,6 +2531,12 @@
       <c r="A63" t="s">
         <v>165</v>
       </c>
+      <c r="B63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" t="s">
+        <v>320</v>
+      </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
       </c>
@@ -1594,6 +2545,12 @@
       <c r="A64" t="s">
         <v>166</v>
       </c>
+      <c r="B64" t="s">
+        <v>321</v>
+      </c>
+      <c r="C64" t="s">
+        <v>322</v>
+      </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
       </c>
@@ -1602,6 +2559,12 @@
       <c r="A65" t="s">
         <v>167</v>
       </c>
+      <c r="B65" t="s">
+        <v>323</v>
+      </c>
+      <c r="C65" t="s">
+        <v>324</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1610,6 +2573,12 @@
       <c r="A66" t="s">
         <v>168</v>
       </c>
+      <c r="B66" t="s">
+        <v>325</v>
+      </c>
+      <c r="C66" t="s">
+        <v>326</v>
+      </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
       </c>
@@ -1618,6 +2587,12 @@
       <c r="A67" t="s">
         <v>169</v>
       </c>
+      <c r="B67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" t="s">
+        <v>328</v>
+      </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
       </c>
@@ -1626,6 +2601,12 @@
       <c r="A68" t="s">
         <v>170</v>
       </c>
+      <c r="B68" t="s">
+        <v>329</v>
+      </c>
+      <c r="C68" t="s">
+        <v>330</v>
+      </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
       </c>
@@ -1634,6 +2615,12 @@
       <c r="A69" t="s">
         <v>171</v>
       </c>
+      <c r="B69" t="s">
+        <v>331</v>
+      </c>
+      <c r="C69" t="s">
+        <v>261</v>
+      </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
       </c>
@@ -1642,6 +2629,12 @@
       <c r="A70" t="s">
         <v>172</v>
       </c>
+      <c r="B70" t="s">
+        <v>332</v>
+      </c>
+      <c r="C70" t="s">
+        <v>333</v>
+      </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
       </c>
@@ -1650,6 +2643,12 @@
       <c r="A71" t="s">
         <v>173</v>
       </c>
+      <c r="B71" t="s">
+        <v>334</v>
+      </c>
+      <c r="C71" t="s">
+        <v>335</v>
+      </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
       </c>
@@ -1658,6 +2657,12 @@
       <c r="A72" t="s">
         <v>174</v>
       </c>
+      <c r="B72" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" t="s">
+        <v>337</v>
+      </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
       </c>
@@ -1666,6 +2671,12 @@
       <c r="A73" t="s">
         <v>175</v>
       </c>
+      <c r="B73" t="s">
+        <v>338</v>
+      </c>
+      <c r="C73" t="s">
+        <v>339</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
       </c>
@@ -1674,6 +2685,12 @@
       <c r="A74" t="s">
         <v>176</v>
       </c>
+      <c r="B74" t="s">
+        <v>340</v>
+      </c>
+      <c r="C74" t="s">
+        <v>341</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
       </c>
@@ -1682,6 +2699,12 @@
       <c r="A75" t="s">
         <v>177</v>
       </c>
+      <c r="B75" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" t="s">
+        <v>343</v>
+      </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
       </c>
@@ -1690,6 +2713,12 @@
       <c r="A76" t="s">
         <v>178</v>
       </c>
+      <c r="B76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C76" t="s">
+        <v>345</v>
+      </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
       </c>
@@ -1698,6 +2727,12 @@
       <c r="A77" t="s">
         <v>179</v>
       </c>
+      <c r="B77" t="s">
+        <v>346</v>
+      </c>
+      <c r="C77" t="s">
+        <v>347</v>
+      </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
       </c>
@@ -1706,6 +2741,12 @@
       <c r="A78" t="s">
         <v>180</v>
       </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>349</v>
+      </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
       </c>
@@ -1714,6 +2755,12 @@
       <c r="A79" t="s">
         <v>181</v>
       </c>
+      <c r="B79" t="s">
+        <v>350</v>
+      </c>
+      <c r="C79" t="s">
+        <v>351</v>
+      </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
       </c>
@@ -1722,6 +2769,12 @@
       <c r="A80" t="s">
         <v>182</v>
       </c>
+      <c r="B80" t="s">
+        <v>352</v>
+      </c>
+      <c r="C80" t="s">
+        <v>353</v>
+      </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
       </c>
@@ -1730,6 +2783,12 @@
       <c r="A81" t="s">
         <v>183</v>
       </c>
+      <c r="B81" t="s">
+        <v>354</v>
+      </c>
+      <c r="C81" t="s">
+        <v>355</v>
+      </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
       </c>
@@ -1738,6 +2797,12 @@
       <c r="A82" t="s">
         <v>184</v>
       </c>
+      <c r="B82" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" t="s">
+        <v>357</v>
+      </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
       </c>
@@ -1746,6 +2811,12 @@
       <c r="A83" t="s">
         <v>185</v>
       </c>
+      <c r="B83" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" t="s">
+        <v>359</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
       </c>
@@ -1754,6 +2825,12 @@
       <c r="A84" t="s">
         <v>186</v>
       </c>
+      <c r="B84" t="s">
+        <v>360</v>
+      </c>
+      <c r="C84" t="s">
+        <v>361</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
       </c>
@@ -1762,6 +2839,12 @@
       <c r="A85" t="s">
         <v>187</v>
       </c>
+      <c r="B85" t="s">
+        <v>362</v>
+      </c>
+      <c r="C85" t="s">
+        <v>363</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
       </c>
@@ -1770,6 +2853,12 @@
       <c r="A86" t="s">
         <v>188</v>
       </c>
+      <c r="B86" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" t="s">
+        <v>365</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
       </c>
@@ -1778,6 +2867,12 @@
       <c r="A87" t="s">
         <v>189</v>
       </c>
+      <c r="B87" t="s">
+        <v>366</v>
+      </c>
+      <c r="C87" t="s">
+        <v>367</v>
+      </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
       </c>
@@ -1786,6 +2881,12 @@
       <c r="A88" t="s">
         <v>190</v>
       </c>
+      <c r="B88" t="s">
+        <v>368</v>
+      </c>
+      <c r="C88" t="s">
+        <v>369</v>
+      </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,6 +2895,12 @@
       <c r="A89" t="s">
         <v>191</v>
       </c>
+      <c r="B89" t="s">
+        <v>370</v>
+      </c>
+      <c r="C89" t="s">
+        <v>301</v>
+      </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
       </c>
@@ -1802,6 +2909,12 @@
       <c r="A90" t="s">
         <v>192</v>
       </c>
+      <c r="B90" t="s">
+        <v>371</v>
+      </c>
+      <c r="C90" t="s">
+        <v>372</v>
+      </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
       </c>
@@ -1810,6 +2923,12 @@
       <c r="A91" t="s">
         <v>193</v>
       </c>
+      <c r="B91" t="s">
+        <v>373</v>
+      </c>
+      <c r="C91" t="s">
+        <v>374</v>
+      </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
       </c>
@@ -1818,6 +2937,12 @@
       <c r="A92" t="s">
         <v>194</v>
       </c>
+      <c r="B92" t="s">
+        <v>375</v>
+      </c>
+      <c r="C92" t="s">
+        <v>376</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
       </c>
@@ -1826,6 +2951,12 @@
       <c r="A93" t="s">
         <v>195</v>
       </c>
+      <c r="B93" t="s">
+        <v>377</v>
+      </c>
+      <c r="C93" t="s">
+        <v>378</v>
+      </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
       </c>
@@ -1834,6 +2965,12 @@
       <c r="A94" t="s">
         <v>196</v>
       </c>
+      <c r="B94" t="s">
+        <v>379</v>
+      </c>
+      <c r="C94" t="s">
+        <v>380</v>
+      </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
       </c>
@@ -1842,6 +2979,12 @@
       <c r="A95" t="s">
         <v>197</v>
       </c>
+      <c r="B95" t="s">
+        <v>381</v>
+      </c>
+      <c r="C95" t="s">
+        <v>382</v>
+      </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
       </c>
@@ -1850,6 +2993,12 @@
       <c r="A96" t="s">
         <v>198</v>
       </c>
+      <c r="B96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" t="s">
+        <v>384</v>
+      </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
       </c>
@@ -1858,6 +3007,12 @@
       <c r="A97" t="s">
         <v>199</v>
       </c>
+      <c r="B97" t="s">
+        <v>385</v>
+      </c>
+      <c r="C97" t="s">
+        <v>386</v>
+      </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
       </c>
@@ -1866,6 +3021,12 @@
       <c r="A98" t="s">
         <v>200</v>
       </c>
+      <c r="B98" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" t="s">
+        <v>388</v>
+      </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
       </c>
@@ -1874,6 +3035,12 @@
       <c r="A99" t="s">
         <v>201</v>
       </c>
+      <c r="B99" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" t="s">
+        <v>388</v>
+      </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
       </c>
@@ -1882,6 +3049,12 @@
       <c r="A100" t="s">
         <v>202</v>
       </c>
+      <c r="B100" t="s">
+        <v>390</v>
+      </c>
+      <c r="C100" t="s">
+        <v>391</v>
+      </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
       </c>
@@ -1889,6 +3062,12 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>203</v>
+      </c>
+      <c r="B101" t="s">
+        <v>392</v>
+      </c>
+      <c r="C101" t="s">
+        <v>393</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
